--- a/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>156,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>-58,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>101,26%</t>
+          <t>251,35%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,21</t>
+          <t>-5,31; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,32</t>
+          <t>4,17; 24,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,26</t>
+          <t>-16,08; -0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,77</t>
+          <t>-1,28; 9,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 166,29</t>
+          <t>-72,92; 376,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 54,02</t>
+          <t>25,44; 517,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 69,79</t>
+          <t>-86,92; 3,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 612,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>156,18%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>251,35%</t>
+          <t>101,26%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 8,99</t>
+          <t>-1,58; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 24,72</t>
+          <t>-4,89; 5,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -0,21</t>
+          <t>-3,38; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,66</t>
+          <t>-0,67; 5,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 376,67</t>
+          <t>-32,11; 166,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,44; 517,49</t>
+          <t>-31,44; 54,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,92; 3,16</t>
+          <t>-30,1; 69,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,6; 612,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>156,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>251,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 24,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 376,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 517,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,92; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>101,26%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,21</t>
+          <t>-2,21; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,32</t>
+          <t>-1,72; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,26</t>
+          <t>-5,71; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,77</t>
+          <t>-4,61; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 166,29</t>
+          <t>-43,24; 328,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 54,02</t>
+          <t>-11,51; 128,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 69,79</t>
+          <t>-49,11; 62,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 612,96</t>
+          <t>-84,08; 509,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>-10,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>113,55%</t>
+          <t>474,58%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,05</t>
+          <t>-2,85; 4,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 7,88</t>
+          <t>-3,63; 7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,94</t>
+          <t>-6,58; 4,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,62</t>
+          <t>0,8; 7,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 139,95</t>
+          <t>-53,84; 160,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 77,65</t>
+          <t>-29,38; 89,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 36,91</t>
+          <t>-49,34; 60,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 605,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 4,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 8,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 2,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 5,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-26,11; 152,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 81,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-40,75; 34,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-23,62; 532,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,98</t>
+          <t>-2,13; 6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 12,37</t>
+          <t>-1,84; 11,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,82</t>
+          <t>-5,63; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,76</t>
+          <t>-4,7; 5,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 328,51</t>
+          <t>-47,44; 304,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 128,71</t>
+          <t>-11,78; 134,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 62,69</t>
+          <t>-49,09; 62,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,08; 509,95</t>
+          <t>-81,67; 454,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,28</t>
+          <t>-3,05; 3,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,79</t>
+          <t>-4,56; 7,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,68</t>
+          <t>-6,74; 4,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,21</t>
+          <t>0,9; 7,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 160,72</t>
+          <t>-51,71; 150,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 89,81</t>
+          <t>-32,51; 92,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 60,63</t>
+          <t>-49,28; 58,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,37</t>
+          <t>-1,59; 3,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,1</t>
+          <t>-0,61; 7,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,72</t>
+          <t>-4,57; 3,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,1</t>
+          <t>-0,39; 5,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 152,96</t>
+          <t>-32,37; 134,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 81,36</t>
+          <t>-5,94; 76,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 34,4</t>
+          <t>-38,22; 37,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 532,77</t>
+          <t>-26,93; 573,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,5</t>
+          <t>-2,35; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 11,94</t>
+          <t>-1,24; 12,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 4,14</t>
+          <t>-6,38; 3,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,5</t>
+          <t>-5,24; 5,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 304,3</t>
+          <t>-42,64; 305,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 134,0</t>
+          <t>-9,78; 143,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 62,51</t>
+          <t>-53,79; 57,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,67; 454,34</t>
+          <t>-81,73; 471,09</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>474,58%</t>
+          <t>405,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,91</t>
+          <t>-2,52; 4,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,3</t>
+          <t>-3,78; 7,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 4,74</t>
+          <t>-7,23; 4,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,32</t>
+          <t>0,21; 6,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 150,03</t>
+          <t>-50,41; 170,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 92,18</t>
+          <t>-29,44; 87,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 58,41</t>
+          <t>-52,8; 54,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,17; —</t>
+          <t>-64,03; —</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>113,55%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,97</t>
+          <t>-1,23; 4,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,62</t>
+          <t>-0,82; 7,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,0</t>
+          <t>-4,68; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,17</t>
+          <t>-0,94; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 134,66</t>
+          <t>-25,9; 139,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 76,58</t>
+          <t>-7,65; 77,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 37,08</t>
+          <t>-38,98; 36,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 573,56</t>
+          <t>-36,27; 561,79</t>
         </is>
       </c>
     </row>
